--- a/sportsday/output/Compiled.xlsx
+++ b/sportsday/output/Compiled.xlsx
@@ -8,10 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Individuals" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ultimate Frisbee Team" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Basketball Team" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Captains Ball Team" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Street Soccer Team" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Individual Street Soccer" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Individual Basketball" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Individual Captain's Ball" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Individual Ultimate Frisbee" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Ultimate Frisbee Team" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basketball Team" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Captains Ball Team" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Street Soccer Team" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -553,6 +557,350 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type of registration</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Desired sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019/10/23 6:04:11 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>asdsa</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>23213213</v>
+      </c>
+      <c r="E2" t="n">
+        <v>123123312</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019/10/23 9:21:47 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sadsad</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>123123</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type of registration</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Desired sport</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type of registration</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Desired sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019/10/23 9:21:05 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sdadsada</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12312321</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12313213123</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Captain's Ball</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type of registration</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Desired sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019/10/23 6:03:46 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DDD</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>123213213</v>
+      </c>
+      <c r="E2" t="n">
+        <v>123123123123</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ultimate Frisbee</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019/10/23 6:03:55 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asdsadsa</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>213123</v>
+      </c>
+      <c r="E3" t="n">
+        <v>123123</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ultimate Frisbee</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BI1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -873,7 +1221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -984,7 +1332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1157,7 +1505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/sportsday/output/Compiled.xlsx
+++ b/sportsday/output/Compiled.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,7 +409,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019/10/23 6:03:46 PM GMT+8</t>
+          <t>2019/10/30 8:25:21 PM GMT+8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -419,25 +419,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DDD</t>
+          <t>Winnie</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>123213213</v>
+        <v>1907942</v>
       </c>
       <c r="E2" t="n">
-        <v>123123123123</v>
+        <v>87002576</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ultimate Frisbee</t>
+          <t>Captain's Ball</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019/10/23 6:03:55 PM GMT+8</t>
+          <t>2019/10/30 8:40:14 PM GMT+8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -447,25 +447,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>asdsadsa</t>
+          <t>insyirah</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>213123</v>
+        <v>1907629</v>
       </c>
       <c r="E3" t="n">
-        <v>123123</v>
+        <v>87927976</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ultimate Frisbee</t>
+          <t>Captain's Ball</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019/10/23 6:04:11 PM GMT+8</t>
+          <t>2019/10/30 9:01:52 PM GMT+8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -475,72 +475,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>asdsa</t>
+          <t>Xavier Tan Jia Wei</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23213213</v>
+        <v>1907968</v>
       </c>
       <c r="E4" t="n">
-        <v>123123312</v>
+        <v>91389445</v>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>Street Soccer</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2019/10/23 9:21:05 PM GMT+8</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Individual</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sdadsada</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>12312321</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12313213123</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Captain's Ball</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2019/10/23 9:21:47 PM GMT+8</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Individual</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sadsad</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>123123</v>
-      </c>
-      <c r="E6" t="n">
-        <v>32</v>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>Street Soccer</t>
         </is>
@@ -557,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +544,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019/10/23 6:04:11 PM GMT+8</t>
+          <t>2019/10/30 9:01:52 PM GMT+8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -610,44 +554,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>asdsa</t>
+          <t>Xavier Tan Jia Wei</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23213213</v>
+        <v>1907968</v>
       </c>
       <c r="E2" t="n">
-        <v>123123312</v>
+        <v>91389445</v>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>Street Soccer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2019/10/23 9:21:47 PM GMT+8</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Individual</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sadsad</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>123123</v>
-      </c>
-      <c r="E3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Street Soccer</t>
         </is>
@@ -715,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,7 +674,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019/10/23 9:21:05 PM GMT+8</t>
+          <t>2019/10/30 8:25:21 PM GMT+8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -768,16 +684,44 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sdadsada</t>
+          <t>Winnie</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12312321</v>
+        <v>1907942</v>
       </c>
       <c r="E2" t="n">
-        <v>12313213123</v>
+        <v>87002576</v>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>Captain's Ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019/10/30 8:40:14 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>insyirah</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1907629</v>
+      </c>
+      <c r="E3" t="n">
+        <v>87927976</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Captain's Ball</t>
         </is>
@@ -794,7 +738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,62 +775,6 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Desired sport</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2019/10/23 6:03:46 PM GMT+8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Individual</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DDD</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>123213213</v>
-      </c>
-      <c r="E2" t="n">
-        <v>123123123123</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ultimate Frisbee</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2019/10/23 6:03:55 PM GMT+8</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Individual</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>asdsadsa</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>213123</v>
-      </c>
-      <c r="E3" t="n">
-        <v>123123</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ultimate Frisbee</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:BI1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,78 +1141,293 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Full Name of Player #1 (Team Captain)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Team Captain's Contact Info (HP)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#1)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#2)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#3)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#4)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #5</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#5)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #6</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#6)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #7</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#7)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #1 (Team Captain).1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Team Captain's Contact Info (HP).1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#1).1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #2.1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#2).1</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #3.1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#3).1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #4.1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#4).1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #5.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#5).1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #6.1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#6).1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #7.1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#7).1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #8</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#8)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #9</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#9)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #10</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#10)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #1 (Team Captain).2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Team Captain's Contact Info (HP).2</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#1).2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #2.2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#2).2</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #3.2</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#3).2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #4.2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#4).2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #5.2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#5).2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>Full Name of Player #1 (Team Captain).3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Team Captain's Contact Info (HP).3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Admin Number (#1).3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Full Name of Player #2.3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Admin Number (#2).3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Full Name of Player #3.3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Admin Number (#3).3</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2019/10/23 6:04:30 PM GMT+8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3v3 Basketball</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sadasd12</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>23</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>123</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12321</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31</v>
-      </c>
-      <c r="J2" t="n">
-        <v>23</v>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Desired sport</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1544,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019/10/23 9:21:17 PM GMT+8</t>
+          <t>2019/10/31 9:17:06 AM GMT+8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1454,50 +1557,64 @@
           <t>Captain's Ball</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2132131</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Gareth Chui Yeung Jee</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>3131</v>
+        <v>81019115</v>
       </c>
       <c r="F2" t="n">
-        <v>312313</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
+        <v>1909845</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeo-Guan Wei Lin Elaine </t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
-      </c>
-      <c r="I2" t="n">
-        <v>321</v>
+        <v>1909746</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Nazreen Aishah</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23</v>
+        <v>1909775</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Michelle Lee Hui Ling</t>
+        </is>
       </c>
       <c r="L2" t="n">
-        <v>123</v>
-      </c>
-      <c r="M2" t="n">
-        <v>13</v>
+        <v>1910319</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Goh Wei Qi Jerel</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>13</v>
+        <v>1909944</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yang Jing Ting</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>1231</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3123</v>
+        <v>1909832</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Lia Lum</t>
+        </is>
       </c>
       <c r="R2" t="n">
-        <v>123</v>
+        <v>1909960</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,7 +1711,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019/10/23 9:21:33 PM GMT+8</t>
+          <t>2019/10/31 8:36:01 AM GMT+8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1607,38 +1724,128 @@
           <t>Street Soccer</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>123</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nur Ashikin Binte Haron</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>231</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3123</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1231</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31</v>
-      </c>
-      <c r="I2" t="n">
-        <v>231</v>
-      </c>
-      <c r="J2" t="n">
-        <v>23</v>
-      </c>
-      <c r="K2" t="n">
-        <v>123</v>
-      </c>
-      <c r="L2" t="n">
-        <v>131</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31</v>
-      </c>
-      <c r="N2" t="n">
-        <v>23</v>
+        <v>87928607</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>P1908422</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Mohammad Mahidul Hassan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>P1908279</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Heng Wei Jie</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>P1907591</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Brandon Ong Kok Wah</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>P1907335</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicholas Tay </t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>P1909928</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019/10/31 9:32:40 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Jonathan Fernandez</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>82187961</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1907281</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">keegan lim </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1908857</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>brian lim</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1908873</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darrren foo </t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1910124</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Lee An</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1909072</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/sportsday/output/Compiled.xlsx
+++ b/sportsday/output/Compiled.xlsx
@@ -11,11 +11,9 @@
     <sheet name="Individual Street Soccer" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Individual Basketball" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Individual Captain's Ball" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Individual Ultimate Frisbee" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Ultimate Frisbee Team" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Basketball Team" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Captains Ball Team" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Street Soccer Team" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Basketball Team" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Captains Ball Team" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Street Soccer Team" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -366,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +485,230 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019/10/31 12:03:28 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PARK JUNGWOO</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1908860</v>
+      </c>
+      <c r="E5" t="n">
+        <v>81616554</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019/10/31 10:02:56 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Shahul</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1908109</v>
+      </c>
+      <c r="E6" t="n">
+        <v>96562082</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019/10/31 11:06:55 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph </t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1907492</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81865094</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Captain's Ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019/10/31 11:38:30 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Goh Zhen Hao</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1908787</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92327880</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2019/11/01 12:26:32 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Darren Ong Duan Hong</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1909506</v>
+      </c>
+      <c r="E9" t="n">
+        <v>87827014</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2019/11/01 4:16:10 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Loh Miao Xin Bambi</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1909366</v>
+      </c>
+      <c r="E10" t="n">
+        <v>96467811</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2019/11/02 8:15:01 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Eugene Poh Yang Zhi</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1910067</v>
+      </c>
+      <c r="E11" t="n">
+        <v>98328977</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2019/11/05 7:35:12 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chua wei han harold</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1907421</v>
+      </c>
+      <c r="E12" t="n">
+        <v>86068839</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
         </is>
       </c>
     </row>
@@ -501,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +786,62 @@
         <v>91389445</v>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019/10/31 10:02:56 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Shahul</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1908109</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96562082</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019/11/01 4:16:10 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Loh Miao Xin Bambi</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1909366</v>
+      </c>
+      <c r="E4" t="n">
+        <v>96467811</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Street Soccer</t>
         </is>
@@ -580,7 +858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +895,146 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Desired sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019/10/31 12:03:28 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PARK JUNGWOO</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1908860</v>
+      </c>
+      <c r="E2" t="n">
+        <v>81616554</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019/10/31 11:38:30 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Goh Zhen Hao</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1908787</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92327880</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019/11/01 12:26:32 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Darren Ong Duan Hong</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1909506</v>
+      </c>
+      <c r="E4" t="n">
+        <v>87827014</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019/11/02 8:15:01 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Eugene Poh Yang Zhi</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1910067</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98328977</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019/11/05 7:35:12 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chua wei han harold</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1907421</v>
+      </c>
+      <c r="E6" t="n">
+        <v>86068839</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
         </is>
       </c>
     </row>
@@ -631,7 +1049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +1140,34 @@
         <v>87927976</v>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>Captain's Ball</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019/10/31 11:06:55 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph </t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1907492</v>
+      </c>
+      <c r="E4" t="n">
+        <v>81865094</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Captain's Ball</t>
         </is>
@@ -738,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,23 +1205,273 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Sport</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Admin Number</t>
+          <t>Full Name of Player #1 (Team Captain).3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Contact Number</t>
+          <t>Team Captain's Contact Info (HP).3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Desired sport</t>
-        </is>
+          <t>Admin Number (#1).3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #2.3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#2).3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name of Player #3.3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Admin Number (#3).3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019/11/01 12:22:08 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Darryl Ng Jun Long</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93422619</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1909382</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Jordon Yip</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1909593</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Justin Lee Hao Jie</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1908691</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019/11/01 6:26:40 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tan Eu-Gin</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9133 8716</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1907632</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hong YuanChao </t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1908844</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanness Ng </t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1907658</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019/11/01 8:17:44 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Loo Yi Hen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88135118</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1909212</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Justin Tan Jun An</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1909647</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Chun Jin Xiang</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1908282</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019/11/01 10:21:29 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Julian Kwok</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81804372</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1910249</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Leona Yoong</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1910054</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Siti Nabiha</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1908956</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019/11/07 11:29:55 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Liew Chien Hong</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86680633</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1908972</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alex Gordon Petrie</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1908154</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Lee Jun Yi James</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1907731</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +1485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,219 +1584,274 @@
           <t>Admin Number (#7)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #1 (Team Captain).1</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Team Captain's Contact Info (HP).1</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#1).1</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #2.1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#2).1</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #3.1</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#3).1</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #4.1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#4).1</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #5.1</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#5).1</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #6.1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#6).1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #7.1</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#7).1</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #8</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#8)</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #9</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#9)</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #10</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#10)</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #1 (Team Captain).2</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Team Captain's Contact Info (HP).2</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#1).2</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #2.2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#2).2</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #3.2</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#3).2</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #4.2</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#4).2</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #5.2</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#5).2</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #1 (Team Captain).3</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Team Captain's Contact Info (HP).3</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#1).3</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #2.3</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#2).3</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #3.3</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#3).3</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Number</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>Desired sport</t>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019/10/31 9:17:06 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Captain's Ball</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Gareth Chui Yeung Jee</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>81019115</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1909845</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeo-Guan Wei Lin Elaine </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1909746</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Nazreen Aishah</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1909775</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Michelle Lee Hui Ling</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1910319</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Goh Wei Qi Jerel</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1909944</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yang Jing Ting</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1909832</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Lia Lum</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1909960</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019/10/31 6:05:38 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Captain's Ball</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Charmaine Low Yen See</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>92432788</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P1908170</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Kezia Lim Hui Min</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P1908183</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lau Lok Tong Vallerie </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>P1909551</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Jovin Wong Yi Leng</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>P1908659</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Sern Su En</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>P1907393</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liew Zhao Ming Audric </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>P1909142</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Durgaeswaran S/O moorthy</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>P1908138</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019/11/05 10:38:17 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Captain's Ball</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lim Dion</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>87996984</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1909308</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Mira Mardiana Binte Mohamed Yusof</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1909014</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Adam Sit Wei En</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1908985</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teo Ai Sha </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1909478</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bay Kay Rui Ray </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1907265</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Addison Soh</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1907504</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Xian Hui</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1907520</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,576 +1892,63 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Full Name of Player #1 (Team Captain)</t>
+          <t>Full Name of Player #1 (Team Captain).2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Team Captain's Contact Info (HP)</t>
+          <t>Team Captain's Contact Info (HP).2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Admin Number (#1)</t>
+          <t>Admin Number (#1).2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Full Name of Player #2</t>
+          <t>Full Name of Player #2.2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Admin Number (#2)</t>
+          <t>Admin Number (#2).2</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Full Name of Player #3</t>
+          <t>Full Name of Player #3.2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Admin Number (#3)</t>
+          <t>Admin Number (#3).2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Full Name of Player #4</t>
+          <t>Full Name of Player #4.2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Admin Number (#4)</t>
+          <t>Admin Number (#4).2</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Full Name of Player #5</t>
+          <t>Full Name of Player #5.2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Admin Number (#5)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #6</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#6)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #7</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#7)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #1 (Team Captain).1</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Team Captain's Contact Info (HP).1</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#1).1</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #2.1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#2).1</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #3.1</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#3).1</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #4.1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#4).1</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #5.1</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#5).1</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #6.1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#6).1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #7.1</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#7).1</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #8</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#8)</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #9</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#9)</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #10</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#10)</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #1 (Team Captain).2</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Team Captain's Contact Info (HP).2</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#1).2</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #2.2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#2).2</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #3.2</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#3).2</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #4.2</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#4).2</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #5.2</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
           <t>Admin Number (#5).2</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #1 (Team Captain).3</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Team Captain's Contact Info (HP).3</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#1).3</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #2.3</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#2).3</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #3.3</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#3).3</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>Contact Number</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>Desired sport</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type of registration</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sport</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #1 (Team Captain)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Team Captain's Contact Info (HP)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#1)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#2)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #3</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#3)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #4</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#4)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #5</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#5)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #6</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#6)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #7</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#7)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019/10/31 9:17:06 AM GMT+8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Captain's Ball</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Gareth Chui Yeung Jee</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>81019115</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1909845</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yeo-Guan Wei Lin Elaine </t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1909746</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Nazreen Aishah</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1909775</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Michelle Lee Hui Ling</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1910319</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Goh Wei Qi Jerel</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>1909944</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Yang Jing Ting</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>1909832</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Lia Lum</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>1909960</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type of registration</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sport</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #1 (Team Captain).2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Team Captain's Contact Info (HP).2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#1).2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #2.2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#2).2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #3.2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#3).2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #4.2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#4).2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name of Player #5.2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Admin Number (#5).2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
           <t>2019/10/31 8:36:01 AM GMT+8</t>
         </is>
       </c>
@@ -1845,6 +2083,76 @@
       <c r="N3" t="inlineStr">
         <is>
           <t>1909072</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019/11/01 11:10:10 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Charlene Lee See Leng</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>86605512</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P1908774 </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Justin Lee Hao Jie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P1908691</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Audric Liew Zhao Ming</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>P1909142</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Ismarof bin Jazali</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>P1908055</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Yew Wei Song</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P1908071</t>
         </is>
       </c>
     </row>

--- a/sportsday/output/Compiled.xlsx
+++ b/sportsday/output/Compiled.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,62 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019/11/12 9:20:00 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Selvam Jeya Surya</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1907319</v>
+      </c>
+      <c r="E13" t="n">
+        <v>87845195</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2019/11/12 12:23:43 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mohamed Suhail</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1909098</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96324116</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
         </is>
       </c>
     </row>
@@ -723,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +898,62 @@
         <v>96467811</v>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019/11/12 9:20:00 AM GMT+8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Selvam Jeya Surya</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1907319</v>
+      </c>
+      <c r="E5" t="n">
+        <v>87845195</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Street Soccer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019/11/12 12:23:43 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mohamed Suhail</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1909098</v>
+      </c>
+      <c r="E6" t="n">
+        <v>96324116</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Street Soccer</t>
         </is>
@@ -1184,7 +1296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1472,6 +1584,52 @@
       </c>
       <c r="J6" t="n">
         <v>1907731</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019/11/10 1:45:22 PM GMT+8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3 v 3 Basketball</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Raynald lim</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91999716</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1908167</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Heng Jun yi</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1909580</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Leong Ming Liang Timothy</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1907799</v>
       </c>
     </row>
   </sheetData>
